--- a/Emissao/Dados_Emissao/Editado/Talita_Ariani_Lopes_Fabiano.xlsx
+++ b/Emissao/Dados_Emissao/Editado/Talita_Ariani_Lopes_Fabiano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA104"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,6 +562,11 @@
       <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Frota Itens</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>ZeradoMes</t>
         </is>
       </c>
     </row>
@@ -635,17 +640,18 @@
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>531</v>
-      </c>
-      <c r="C3" t="n">
-        <v>927</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>405290</t>
@@ -656,51 +662,17 @@
           <t>ABC - CORRETORA DE SEGUROS S/S L</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>22277</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>FELIPE GOMES SALGUEIRO</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2024-10-13</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2025-10-13</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 418,02</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 448,86</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
@@ -742,78 +714,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>531</v>
-      </c>
-      <c r="C4" t="n">
-        <v>927</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>405290</t>
+          <t>401742</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ABC - CORRETORA DE SEGUROS S/S L</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>22278</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>ANA SILVIA LOPES DAVI MEDOLA</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2024-10-15</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2025-10-15</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 226,98</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 243,72</t>
-        </is>
-      </c>
+          <t>ADESTRA BRU COR.DE SEGS.LTDA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
@@ -855,78 +790,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>531</v>
-      </c>
-      <c r="C5" t="n">
-        <v>990</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>401742</t>
+          <t>529380</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ADESTRA BRU COR.DE SEGS.LTDA</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>95539</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>VALERIA MARIA BOESSO DIAS</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.640,45</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.909,11</t>
-        </is>
-      </c>
+          <t>ADRIANA R M GARCIA CORRETORA DE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
@@ -968,78 +866,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>531</v>
-      </c>
-      <c r="C6" t="n">
-        <v>990</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>401742</t>
+          <t>529571</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ADESTRA BRU COR.DE SEGS.LTDA</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>95543</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>GILBERTO FERNANDES</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.324,77</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.496,33</t>
-        </is>
-      </c>
+          <t>AG CORRETORA DE SEGUROS E SERVIC</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
@@ -1081,78 +942,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>531</v>
-      </c>
-      <c r="C7" t="n">
-        <v>990</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>401742</t>
+          <t>482584</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ADESTRA BRU COR.DE SEGS.LTDA</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>95547</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>JOSE ALEX GARCIA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2024-10-06</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>10</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.826,84</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.961,66</t>
-        </is>
-      </c>
+          <t>ALESSANDRA SILVA DAMACENO</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
@@ -1194,87 +1018,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>531</v>
-      </c>
-      <c r="C8" t="n">
-        <v>990</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>401742</t>
+          <t>482584</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ADESTRA BRU COR.DE SEGS.LTDA</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>95597</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SIMONE SOARES FORTUNATO</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.756,82</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.960,27</t>
-        </is>
-      </c>
+          <t>ALESSANDRA SILVA DAMACENO</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1307,12 +1094,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1322,12 +1110,12 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>482584</t>
+          <t>403466</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ALESSANDRA SILVA DAMACENO</t>
+          <t>ANGELA CARBONI CORRETORA DE SEGU</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -1384,43 +1172,86 @@
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>531</v>
+      </c>
+      <c r="C10" t="n">
+        <v>990</v>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>482584</t>
+          <t>403556</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ALESSANDRA SILVA DAMACENO</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+          <t>APAVERON CORRETORA DE SEGUROS LT</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>96546</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>BENEDITO CORREIA PINTO</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.100,81</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.182,04</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>936</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>MARILIA MERCADO</t>
+          <t>BAURU MERCADO</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1453,8 +1284,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1464,12 +1300,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>403466</t>
+          <t>402153</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ANGELA CARBONI CORRETORA DE SEGU</t>
+          <t>BARINNI ADM. E COR. SEGS LTDA.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1526,72 +1362,39 @@
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>531</v>
-      </c>
-      <c r="C12" t="n">
-        <v>927</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>403556</t>
+          <t>404723</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>APAVERON CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>22227</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>SICILIA PEREZ DE CAMARGO</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 476,39</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 511,54</t>
-        </is>
-      </c>
+          <t>BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
@@ -1633,87 +1436,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>531</v>
-      </c>
-      <c r="C13" t="n">
-        <v>927</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>403556</t>
+          <t>404723</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>APAVERON CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>22243</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>ARIELI MARRAN DA SILVA</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 348,51</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 374,22</t>
-        </is>
-      </c>
+          <t>BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1746,78 +1512,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>531</v>
-      </c>
-      <c r="C14" t="n">
-        <v>927</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>403556</t>
+          <t>521399</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>APAVERON CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>22281</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>ANTONIO SERAFIM PEDRO ANGELO</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2024-10-13</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2025-10-13</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>4</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 321,87</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 345,59</t>
-        </is>
-      </c>
+          <t>BERTUZZO CORRE DE SEGS E PECAS L</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
@@ -1859,78 +1588,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>531</v>
-      </c>
-      <c r="C15" t="n">
-        <v>927</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>403556</t>
+          <t>537340</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>APAVERON CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>22294</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>DOUGLAS DE SANTIS GRECCO</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>4</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 306,82</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 329,43</t>
-        </is>
-      </c>
+          <t>C2L CORRETORA DE SEGUROS E NEG L</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
@@ -1972,78 +1664,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>531</v>
-      </c>
-      <c r="C16" t="n">
-        <v>990</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>403556</t>
+          <t>402209</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>APAVERON CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>95630</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>TORRINHA MATERIAIS PARA CONSTRUCAO LTDA</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>6</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.241,96</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.407,41</t>
-        </is>
-      </c>
+          <t>CAMARGO PENTEADO COR.SEGS S/C LT</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
@@ -2085,78 +1740,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>531</v>
-      </c>
-      <c r="C17" t="n">
-        <v>927</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>402153</t>
+          <t>404445</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BARINNI ADM. E COR. SEGS LTDA.</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>22315</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>LEANDRO ALVES MARINHEIRO</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>6</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 723,47</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 848,04</t>
-        </is>
-      </c>
+          <t>CAPPI &amp; MACHADO CORRETORA DE SEG</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
@@ -2198,87 +1816,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>531</v>
-      </c>
-      <c r="C18" t="n">
-        <v>990</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>404723</t>
+          <t>404445</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>95346</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>MARIANA LOPES RIBEIRO SOUZA</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2025-09-16</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>4</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.405,77</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.878,51</t>
-        </is>
-      </c>
+          <t>CAPPI &amp; MACHADO CORRETORA DE SEG</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2311,78 +1892,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>531</v>
-      </c>
-      <c r="C19" t="n">
-        <v>990</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>404723</t>
+          <t>421764</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>95636</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>LEANDRO COLUCI</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>4</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.248,59</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.931,13</t>
-        </is>
-      </c>
+          <t>CARBANE COR DE SEGUROS LTDA ME</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
@@ -2424,12 +1968,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2439,12 +1984,12 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>404723</t>
+          <t>421764</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
+          <t>CARBANE COR DE SEGUROS LTDA ME</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -2501,72 +2046,39 @@
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>531</v>
-      </c>
-      <c r="C21" t="n">
-        <v>927</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>521399</t>
+          <t>401547</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>BERTUZZO CORRE DE SEGS E PECAS L</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>22253</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>ARNALDO DOS ANJOS RAMOS</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2027-10-04</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>8</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.411,00</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.588,91</t>
-        </is>
-      </c>
+          <t>CARLOS JOSE CORAZZA COR.DE SEGS</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
@@ -2608,12 +2120,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2623,12 +2136,12 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>402209</t>
+          <t>402349</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CAMARGO PENTEADO COR.SEGS S/C LT</t>
+          <t>CARRER CORRETORA DE SEGUROS S/S</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -2685,6 +2198,11 @@
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2694,12 +2212,12 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>404445</t>
+          <t>480878</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CAPPI &amp; MACHADO CORRETORA DE SEG</t>
+          <t>CENTRAL BAURU CORRETORA DE SEGS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -2756,6 +2274,11 @@
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2765,12 +2288,12 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>404445</t>
+          <t>404287</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CAPPI &amp; MACHADO CORRETORA DE SEG</t>
+          <t>CHIQUINATTO PARENTI COR DE SEGS</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -2787,12 +2310,12 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>936</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>MARILIA MERCADO</t>
+          <t>BAURU MERCADO</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2827,6 +2350,11 @@
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2836,12 +2364,12 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>421764</t>
+          <t>494852</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CARBANE COR DE SEGUROS LTDA ME</t>
+          <t>CINSEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -2858,12 +2386,12 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -2898,81 +2426,48 @@
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>531</v>
-      </c>
-      <c r="C26" t="n">
-        <v>927</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>421764</t>
+          <t>404838</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CARBANE COR DE SEGUROS LTDA ME</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5651</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>BELMIRA BARBOSA DO NASCIMENTO</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>6</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 302,03</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 324,29</t>
-        </is>
-      </c>
+          <t>CONFIALLE CORR SEGS EIRELI EPP</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>936</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>MARILIA MERCADO</t>
+          <t>BAURU MERCADO</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -3005,12 +2500,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3020,12 +2516,12 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>401547</t>
+          <t>515873</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CARLOS JOSE CORAZZA COR.DE SEGS</t>
+          <t>COPAIBA CORR E AGENTES DE SEGURO</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -3082,6 +2578,11 @@
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3091,12 +2592,12 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>402349</t>
+          <t>403403</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CARRER CORRETORA DE SEGUROS S/S</t>
+          <t>CORRETO CORRETO COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -3153,6 +2654,11 @@
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3162,12 +2668,12 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>480878</t>
+          <t>403403</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CENTRAL BAURU CORRETORA DE SEGS</t>
+          <t>CORRETO CORRETO COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -3184,12 +2690,12 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -3224,72 +2730,39 @@
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>531</v>
-      </c>
-      <c r="C30" t="n">
-        <v>990</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>404287</t>
+          <t>405064</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CHIQUINATTO PARENTI COR DE SEGS</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>95348</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>HIEDA MARIA ALVES RAGOZO</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>2024-09-24</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2025-09-24</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>4</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.130,61</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.287,84</t>
-        </is>
-      </c>
+          <t>CORRETORA DOMINGUES DE SEGS LTDA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
@@ -3331,12 +2804,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3346,12 +2820,12 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>494852</t>
+          <t>400269</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CINSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>CRISTIANO KRISTENSEN</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3368,12 +2842,12 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>936</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>MARILIA MERCADO</t>
+          <t>BAURU MERCADO</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -3408,34 +2882,77 @@
       </c>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>531</v>
+      </c>
+      <c r="C32" t="n">
+        <v>990</v>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>404838</t>
+          <t>404916</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CONFIALLE CORR SEGS EIRELI EPP</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+          <t>D.L. CORRETORA DE SEGUROS LTDA.</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>96511</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>GERALDO FERREIRA DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>6</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.745,69</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.948,32</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
@@ -3477,8 +2994,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
       <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3488,12 +3010,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>515873</t>
+          <t>400907</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>COPAIBA CORR E AGENTES DE SEGURO</t>
+          <t>DANIEL DE ANDRADE GHIROTTI</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -3550,6 +3072,11 @@
       </c>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3559,12 +3086,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>403403</t>
+          <t>403554</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CORRETO CORRETO COR DE SEGS LTDA</t>
+          <t>EDINHO CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -3621,6 +3148,11 @@
       </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3630,12 +3162,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>403403</t>
+          <t>405195</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CORRETO CORRETO COR DE SEGS LTDA</t>
+          <t>FUNDAMENTAL COR.DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -3652,12 +3184,12 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>936</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>MARILIA MERCADO</t>
+          <t>BAURU MERCADO</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -3692,6 +3224,11 @@
       </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3701,12 +3238,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>405064</t>
+          <t>538800</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CORRETORA DOMINGUES DE SEGS LTDA</t>
+          <t>Fiz Corretora de Seguros LTDA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -3763,72 +3300,39 @@
       </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>531</v>
-      </c>
-      <c r="C37" t="n">
-        <v>927</v>
-      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>400269</t>
+          <t>404714</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CRISTIANO KRISTENSEN</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>22259</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>MARCO CESAR LEITE</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>10</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 380,75</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 496,35</t>
-        </is>
-      </c>
+          <t>GARSEG CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
@@ -3870,12 +3374,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3885,12 +3390,12 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>404916</t>
+          <t>404715</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>D.L. CORRETORA DE SEGUROS LTDA.</t>
+          <t>GARSEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -3907,12 +3412,12 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -3947,6 +3452,11 @@
       </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3956,12 +3466,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>400907</t>
+          <t>402336</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DANIEL DE ANDRADE GHIROTTI</t>
+          <t>IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -4018,6 +3528,11 @@
       </c>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4027,12 +3542,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>403554</t>
+          <t>402336</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>EDINHO CORRETORA DE SEGUROS LTDA</t>
+          <t>IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -4049,12 +3564,12 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -4089,72 +3604,39 @@
       </c>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>531</v>
-      </c>
-      <c r="C41" t="n">
-        <v>990</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>405195</t>
+          <t>530111</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FUNDAMENTAL COR.DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>95428</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>JOAO APARECIDO PATIM</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>7</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.296,50</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.465,98</t>
-        </is>
-      </c>
+          <t>JP FRASSON FONCATTI TURCATO COR</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
@@ -4196,78 +3678,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>531</v>
-      </c>
-      <c r="C42" t="n">
-        <v>917</v>
-      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>404714</t>
+          <t>528651</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>GARSEG CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>933</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>JJL NOVA ALIANCA POCOS ARTESIANOS LTDA</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>6</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.308,04</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.994,92</t>
-        </is>
-      </c>
+          <t>JSJ CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
@@ -4309,78 +3754,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>Equipamento</t>
-        </is>
-      </c>
+      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>531</v>
-      </c>
-      <c r="C43" t="n">
-        <v>990</v>
-      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>404714</t>
+          <t>441532</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>GARSEG CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>95419</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>ANTONIO PERES</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
-        <v>6</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.541,45</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.729,00</t>
-        </is>
-      </c>
+          <t>JVR ADM E COR DE SEGS LTDA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
@@ -4422,87 +3830,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>531</v>
-      </c>
-      <c r="C44" t="n">
-        <v>990</v>
-      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>404714</t>
+          <t>441532</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>GARSEG CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>95420</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>LUCIA ADRIANA ROSARIO GOMES</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>10</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.689,70</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.814,39</t>
-        </is>
-      </c>
+          <t>JVR ADM E COR DE SEGS LTDA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -4535,78 +3906,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>531</v>
-      </c>
-      <c r="C45" t="n">
-        <v>990</v>
-      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>404714</t>
+          <t>404836</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>GARSEG CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>95484</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>GARCA POCOS ARTESIANOS E CONST</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>2024-09-29</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>6</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.114,68</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.344,54</t>
-        </is>
-      </c>
+          <t>LIDER COR.DE SEGUROS S/C LTDA.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
@@ -4648,78 +3982,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>531</v>
-      </c>
-      <c r="C46" t="n">
-        <v>990</v>
-      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>404714</t>
+          <t>404716</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>GARSEG CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>95485</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>GARCA POCOS ARTESIANOS E CONST</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>2024-09-29</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>6</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.114,68</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.344,54</t>
-        </is>
-      </c>
+          <t>MACS MARILIA ADM E COR SEG LTDA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
@@ -4761,87 +4058,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>531</v>
-      </c>
-      <c r="C47" t="n">
-        <v>990</v>
-      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>404714</t>
+          <t>404717</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>GARSEG CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>95535</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>GILBERTO MORETI PLAZA</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>10</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.524,34</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.710,63</t>
-        </is>
-      </c>
+          <t>MACS MARILIA ADM E COR SEG LTDA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -4874,12 +4134,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4893,16 +4154,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>404714</t>
+          <t>404835</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>GARSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>MAFA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>95632</v>
+        <v>96549</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4912,7 +4173,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>CONSTRUTORA MEGASOL LTDA</t>
+          <t>JEAN CLOUD CAMPOS GONCALVES</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -4920,30 +4181,30 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-11-03</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.517,88</t>
+          <t xml:space="preserve"> 5.366,47</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.146,49</t>
+          <t xml:space="preserve"> 5.762,51</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr"/>
@@ -4993,6 +4254,7 @@
         </is>
       </c>
       <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5002,12 +4264,12 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>404715</t>
+          <t>400299</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>GARSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>MARCOS ANTONIO POMPOLINI PAIVA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -5024,12 +4286,12 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>936</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>MARILIA MERCADO</t>
+          <t>BAURU MERCADO</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -5064,72 +4326,39 @@
       </c>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>531</v>
-      </c>
-      <c r="C50" t="n">
-        <v>990</v>
-      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>402336</t>
+          <t>404128</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>95359</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>CONSTRUTORA MARQUES DA COSTA LTDA</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>2024-09-24</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2025-09-24</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>10</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.352,90</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.600,34</t>
-        </is>
-      </c>
+          <t>MINUCCI &amp; ZANUTO COR SEG LTDA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
@@ -5171,87 +4400,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>531</v>
-      </c>
-      <c r="C51" t="n">
-        <v>990</v>
-      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>402336</t>
+          <t>404128</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>95499</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>INDUSTRIA MARQUES DA COSTA LTDA</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>2024-09-28</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>4</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.925,05</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.140,91</t>
-        </is>
-      </c>
+          <t>MINUCCI &amp; ZANUTO COR SEG LTDA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -5284,78 +4476,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>531</v>
-      </c>
-      <c r="C52" t="n">
-        <v>990</v>
-      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>402336</t>
+          <t>527629</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>95519</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>MARCO AURELIO GUIJO</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>2024-09-29</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>6</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.741,55</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.239,07</t>
-        </is>
-      </c>
+          <t>MOLAN CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
@@ -5397,12 +4552,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5412,20 +4568,20 @@
         <v>531</v>
       </c>
       <c r="C53" t="n">
-        <v>990</v>
+        <v>927</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>402336</t>
+          <t>403928</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
+          <t>NICOLETTI &amp; ROMAGNOLLI COR SEGS</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>95582</v>
+        <v>22673</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -5435,7 +4591,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>CONSTRUTORA MARQUES DA COSTA LTDA</t>
+          <t>MARIA DELGI RAMOS</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -5443,30 +4599,30 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.732,65</t>
+          <t xml:space="preserve"> 916,10</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.860,51</t>
+          <t xml:space="preserve"> 983,66</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
@@ -5512,10 +4668,11 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Residencial Sob Medida</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5525,12 +4682,12 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>402336</t>
+          <t>495149</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
+          <t>ONLINE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -5547,12 +4704,12 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>936</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>MARILIA MERCADO</t>
+          <t>BAURU MERCADO</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -5587,6 +4744,11 @@
       </c>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5596,12 +4758,12 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>528651</t>
+          <t>495149</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>JSJ CORRETORA DE SEGUROS LTDA</t>
+          <t>ONLINE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -5618,12 +4780,12 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -5658,6 +4820,11 @@
       </c>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5667,20 +4834,20 @@
         <v>531</v>
       </c>
       <c r="C56" t="n">
-        <v>927</v>
+        <v>990</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>441532</t>
+          <t>404478</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>JVR ADM E COR DE SEGS LTDA</t>
+          <t>ONSITE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>22197</v>
+        <v>96536</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -5690,7 +4857,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>FRANCISCO CARLOS CAZALE DE ARAUJO</t>
+          <t>LUCAS APARECIDO CARDOSO</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -5698,30 +4865,30 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 427,04</t>
+          <t xml:space="preserve"> 3.376,77</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 458,52</t>
+          <t xml:space="preserve"> 3.625,97</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr"/>
@@ -5767,85 +4934,48 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>Residencial Sob Medida</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>531</v>
-      </c>
-      <c r="C57" t="n">
-        <v>927</v>
-      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>441532</t>
+          <t>404478</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>JVR ADM E COR DE SEGS LTDA</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>22198</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>DORCEIA GREGORIO PEDRO</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>2</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 827,68</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 888,74</t>
-        </is>
-      </c>
+          <t>ONSITE CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
@@ -5878,12 +5008,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5893,12 +5024,12 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>441532</t>
+          <t>401432</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>JVR ADM E COR DE SEGS LTDA</t>
+          <t>PAVANATO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -5915,12 +5046,12 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>936</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>MARILIA MERCADO</t>
+          <t>BAURU MERCADO</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -5955,72 +5086,39 @@
       </c>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>531</v>
-      </c>
-      <c r="C59" t="n">
-        <v>990</v>
-      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>404836</t>
+          <t>404437</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>LIDER COR.DE SEGUROS S/C LTDA.</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>95378</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>JULIANA DE ALMEIDA NASCIMENTO</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>10</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.108,54</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.264,15</t>
-        </is>
-      </c>
+          <t>PERSONALITE ADM E COR DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
@@ -6062,78 +5160,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>531</v>
-      </c>
-      <c r="C60" t="n">
-        <v>990</v>
-      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>404716</t>
+          <t>508005</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MACS MARILIA ADM E COR SEG LTDA</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>95523</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>LUIS FERNANDO SIMOES CUNHA</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>10</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.147,35</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.453,42</t>
-        </is>
-      </c>
+          <t>PHR. ADMINISTRATIVO E CORR DE SE</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
@@ -6175,12 +5236,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6190,12 +5252,12 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>404717</t>
+          <t>405180</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MACS MARILIA ADM E COR SEG LTDA</t>
+          <t>PRA SEMPRE ADM CORR SEG SC LT</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -6212,12 +5274,12 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>936</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>MARILIA MERCADO</t>
+          <t>BAURU MERCADO</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -6252,72 +5314,39 @@
       </c>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>531</v>
-      </c>
-      <c r="C62" t="n">
-        <v>990</v>
-      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>404835</t>
+          <t>405068</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MAFA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>95421</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>29515</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>FERNANDA CIOCCIA SASTRE REDONDO</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>3</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.919,42</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.134,87</t>
-        </is>
-      </c>
+          <t>RH CORRETORA DE SEGUROS S/C LTDA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
@@ -6359,87 +5388,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>531</v>
-      </c>
-      <c r="C63" t="n">
-        <v>990</v>
-      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>404835</t>
+          <t>405068</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MAFA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>95424</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>PATRICIA CRISTINA FREIRES</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>10</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.688,31</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.812,90</t>
-        </is>
-      </c>
+          <t>RH CORRETORA DE SEGUROS S/C LTDA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -6472,12 +5464,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6487,12 +5480,12 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>400299</t>
+          <t>402601</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MARCOS ANTONIO POMPOLINI PAIVA</t>
+          <t>SABBAG COR.ADM.E CONSULT.DE SEGS</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -6549,6 +5542,11 @@
       </c>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6558,12 +5556,12 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>404128</t>
+          <t>403180</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MINUCCI &amp; ZANUTO COR SEG LTDA</t>
+          <t>SENDER CORRETORA SEGS LTDA</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -6620,43 +5618,86 @@
       </c>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>531</v>
+      </c>
+      <c r="C66" t="n">
+        <v>990</v>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>404128</t>
+          <t>436408</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MINUCCI &amp; ZANUTO COR SEG LTDA</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+          <t>SERTAN COR E ADM DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>96535</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ROSALINA NICOLETTI OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>6</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.119,19</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.275,58</t>
+        </is>
+      </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>936</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>MARILIA MERCADO</t>
+          <t>BAURU MERCADO</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
@@ -6689,8 +5730,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
       <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6700,12 +5746,12 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>527629</t>
+          <t>436408</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MOLAN CORRETORA DE SEGUROS LTDA</t>
+          <t>SERTAN COR E ADM DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -6722,12 +5768,12 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -6762,6 +5808,11 @@
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6771,20 +5822,20 @@
         <v>531</v>
       </c>
       <c r="C68" t="n">
-        <v>927</v>
+        <v>990</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>403928</t>
+          <t>440556</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NICOLETTI &amp; ROMAGNOLLI COR SEGS</t>
+          <t>SILVA &amp; ANDRADE CORR SEGS LTDA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>22178</v>
+        <v>96529</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -6794,7 +5845,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>SERGIO APARECIDO GODOI</t>
+          <t>VANDERLEY PERES MOREIRA</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -6802,30 +5853,30 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 846,21</t>
+          <t xml:space="preserve"> 4.158,72</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 908,65</t>
+          <t xml:space="preserve"> 4.465,63</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr"/>
@@ -6871,76 +5922,39 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>Residencial Sob Medida</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>531</v>
-      </c>
-      <c r="C69" t="n">
-        <v>927</v>
-      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>403928</t>
+          <t>401201</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NICOLETTI &amp; ROMAGNOLLI COR SEGS</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>22206</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>ANA PAULA NAZARETH CORDEIRO</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>2024-10-06</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>6</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.830,46</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.965,52</t>
-        </is>
-      </c>
+          <t>SILVIO CARLOS DAVILA GONCALVES</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
@@ -6982,78 +5996,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>531</v>
-      </c>
-      <c r="C70" t="n">
-        <v>927</v>
-      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>403928</t>
+          <t>405298</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NICOLETTI &amp; ROMAGNOLLI COR SEGS</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>22298</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>FERNANDO SALIBA</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>8</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.271,50</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.365,33</t>
-        </is>
-      </c>
+          <t>SOUZA &amp; CASTRO CORR.SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
@@ -7095,78 +6072,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>531</v>
-      </c>
-      <c r="C71" t="n">
-        <v>926</v>
-      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>495149</t>
+          <t>495847</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ONLINE CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>3088</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>OBARA CURSO DE IDIOMAS LTDA</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>6</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.406,69</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.510,49</t>
-        </is>
-      </c>
+          <t>TOP ALTA PROTECAO CORRETORA DE S</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
@@ -7208,12 +6148,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>Empresarial</t>
-        </is>
-      </c>
+      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7223,20 +6164,20 @@
         <v>531</v>
       </c>
       <c r="C72" t="n">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>495149</t>
+          <t>404709</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ONLINE CORRETORA DE SEGUROS LTDA</t>
+          <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>22266</v>
+        <v>842</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -7246,7 +6187,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>GILBERTO DA SILVA</t>
+          <t>CONDOMINIO EDIFICIO LEBLON</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -7254,30 +6195,30 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 555,33</t>
+          <t xml:space="preserve"> 4.951,84</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 596,29</t>
+          <t xml:space="preserve"> 5.317,24</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr"/>
@@ -7323,47 +6264,86 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>Residencial Sob Medida</t>
+          <t>Condominio</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>531</v>
+      </c>
+      <c r="C73" t="n">
+        <v>927</v>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>495149</t>
+          <t>404709</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ONLINE CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
+          <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>22662</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>MARCIO RODRIGUES BRIANEZI</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>4</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 481,61</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 517,13</t>
+        </is>
+      </c>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>936</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>MARILIA MERCADO</t>
+          <t>BAURU MERCADO</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -7396,8 +6376,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>Residencial Sob Medida</t>
+        </is>
+      </c>
       <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -7407,20 +6392,20 @@
         <v>531</v>
       </c>
       <c r="C74" t="n">
-        <v>919</v>
+        <v>990</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>404478</t>
+          <t>404709</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ONSITE CORRETORA DE SEGUROS LTDA</t>
+          <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>814</v>
+        <v>96552</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -7430,7 +6415,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>RESIDENCIAL VILA DOS PASSAROS</t>
+          <t>WALDOMIRO JOSE PERES</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -7438,30 +6423,30 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.557,74</t>
+          <t xml:space="preserve"> 2.166,15</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.454,44</t>
+          <t xml:space="preserve"> 2.326,01</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr"/>
@@ -7507,85 +6492,48 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>Condominio</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>531</v>
-      </c>
-      <c r="C75" t="n">
-        <v>990</v>
-      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>404478</t>
+          <t>404709</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ONSITE CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>95647</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>KASPEZACK PEREIRA DA PAZ</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>2024-10-17</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>2025-10-17</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>12</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.002,54</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.150,32</t>
-        </is>
-      </c>
+          <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
@@ -7618,12 +6566,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -7633,12 +6582,12 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>404478</t>
+          <t>405473</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ONSITE CORRETORA DE SEGUROS LTDA</t>
+          <t>TRISTAO DE BAURU CORR SEG. LTDA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -7655,12 +6604,12 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>936</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>MARILIA MERCADO</t>
+          <t>BAURU MERCADO</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
@@ -7695,6 +6644,11 @@
       </c>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -7708,16 +6662,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>401432</t>
+          <t>530001</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PAVANATO CORRETORA DE SEGUROS LT</t>
+          <t>V C CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>95500</v>
+        <v>96523</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -7727,7 +6681,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>ALESSANDRO FORTE</t>
+          <t>DEBORAH BARBOZA GARROSSINO FERREIRA DA R</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -7735,17 +6689,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -7753,12 +6707,12 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.182,49</t>
+          <t xml:space="preserve"> 2.630,59</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.786,35</t>
+          <t xml:space="preserve"> 3.180,10</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr"/>
@@ -7808,6 +6762,7 @@
         </is>
       </c>
       <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -7817,12 +6772,12 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>404437</t>
+          <t>439643</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>PERSONALITE ADM E COR DE SEGUROS</t>
+          <t>VITALY COR DE SEG EIRELLI ME</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -7879,6 +6834,11 @@
       </c>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -7888,12 +6848,12 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>508005</t>
+          <t>439643</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PHR. ADMINISTRATIVO E CORR DE SE</t>
+          <t>VITALY COR DE SEG EIRELLI ME</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -7910,12 +6870,12 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>937</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>BAURU MERCADO</t>
+          <t>MARILIA MERCADO</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -7950,72 +6910,39 @@
       </c>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>531</v>
-      </c>
-      <c r="C80" t="n">
-        <v>990</v>
-      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>405180</t>
+          <t>400530</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PRA SEMPRE ADM CORR SEG SC LT</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>95356</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>DINALVA SANTOS</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>2024-09-24</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>2025-09-24</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>4</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.350,01</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.449,64</t>
-        </is>
-      </c>
+          <t>WLADIMIR MAROTTA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
@@ -8057,2346 +6984,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>531</v>
-      </c>
-      <c r="C81" t="n">
-        <v>926</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>405068</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>RH CORRETORA DE SEGUROS S/C LTDA</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>3073</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>CARLOS ALEXANDRE DA GRACA DURO COUTO</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>2025-09-25</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>1</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 392,22</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 421,16</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>Empresarial</t>
-        </is>
-      </c>
-      <c r="AA81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>531</v>
-      </c>
-      <c r="C82" t="n">
-        <v>927</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>405068</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>RH CORRETORA DE SEGUROS S/C LTDA</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>22181</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>ANTONIO FELICIANO COUTINHO</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr">
+      <c r="AB80" t="inlineStr">
         <is>
           <t>2024-10-01</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>1</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 131,16</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 140,83</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y82" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>531</v>
-      </c>
-      <c r="C83" t="n">
-        <v>927</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>405068</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>RH CORRETORA DE SEGUROS S/C LTDA</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>22182</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>ANTONIO FELICIANO COUTINHO</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>2024-10-06</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>1</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 136,53</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 146,60</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y83" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>405068</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>RH CORRETORA DE SEGUROS S/C LTDA</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>937</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>MARILIA MERCADO</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y84" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>531</v>
-      </c>
-      <c r="C85" t="n">
-        <v>990</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>402601</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>SABBAG COR.ADM.E CONSULT.DE SEGS</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>95381</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>29470</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>MARLEI CRISTINA VIEIRA DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>2025-09-20</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>6</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.713,41</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.839,85</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>403180</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>SENDER CORRETORA SEGS LTDA</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y86" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>531</v>
-      </c>
-      <c r="C87" t="n">
-        <v>990</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>436408</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>SERTAN COR E ADM DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>95387</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>PAULO MARQUES MARILIA</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>10</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.689,54</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.888,02</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>531</v>
-      </c>
-      <c r="C88" t="n">
-        <v>990</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>436408</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>SERTAN COR E ADM DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>95411</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>LUIS GUSTAVO GERMANO</t>
-        </is>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>1</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.462,15</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.570,05</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>436408</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>SERTAN COR E ADM DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>937</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>MARILIA MERCADO</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y89" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>531</v>
-      </c>
-      <c r="C90" t="n">
-        <v>927</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>440556</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>SILVA &amp; ANDRADE CORR SEGS LTDA</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>22190</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>WILSON APARECIDO BORRERE</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>6</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 545,10</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 638,94</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y90" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>531</v>
-      </c>
-      <c r="C91" t="n">
-        <v>990</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>401201</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>SILVIO CARLOS DAVILA GONCALVES</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>95416</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>MARIA HELENA RIZATTO CRIADO</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>4</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.935,61</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.078,45</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y91" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>531</v>
-      </c>
-      <c r="C92" t="n">
-        <v>990</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>405298</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>SOUZA &amp; CASTRO CORR.SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>95641</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>ELISABETE DE SOUZA DAMACENO 17173162807</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>10</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.757,58</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.961,08</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y92" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>495847</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>TOP ALTA PROTECAO CORRETORA DE S</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y93" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>531</v>
-      </c>
-      <c r="C94" t="n">
-        <v>926</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>404709</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>3079</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>1</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 259,60</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 278,75</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y94" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>Empresarial</t>
-        </is>
-      </c>
-      <c r="AA94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>531</v>
-      </c>
-      <c r="C95" t="n">
-        <v>927</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>404709</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>22209</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>WALLESKA DA COSTA PALHANO</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
-        <v>8</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 256,22</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 275,10</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y95" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>531</v>
-      </c>
-      <c r="C96" t="n">
-        <v>927</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>404709</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>22224</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>LUCIA ASATO</t>
-        </is>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
-        <v>8</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 616,81</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 662,26</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y96" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z96" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>531</v>
-      </c>
-      <c r="C97" t="n">
-        <v>927</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>404709</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>22244</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>VALQUIRIA NOTARIO MARTINHAO</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>2024-10-06</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
-        <v>6</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 594,15</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 637,95</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z97" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>531</v>
-      </c>
-      <c r="C98" t="n">
-        <v>927</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>404709</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>22331</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>TEREZA CRISTINA MARZOLA</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
-        <v>4</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 332,71</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 357,23</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z98" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>404709</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>937</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>MARILIA MERCADO</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V99" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y99" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>531</v>
-      </c>
-      <c r="C100" t="n">
-        <v>927</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>405473</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>TRISTAO DE BAURU CORR SEG. LTDA</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>22213</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>ABRAAO DETINHO SOARES DA SILVA</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>6</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 376,73</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 404,51</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V100" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y100" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z100" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>530001</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>V C CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V101" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y101" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>439643</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>VITALY COR DE SEG EIRELLI ME</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y102" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z102" t="inlineStr"/>
-      <c r="AA102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>439643</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>VITALY COR DE SEG EIRELLI ME</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>937</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>MARILIA MERCADO</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z103" t="inlineStr"/>
-      <c r="AA103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>400530</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>WLADIMIR MAROTTA</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>BAURU MERCADO</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>221.941.408-67</t>
-        </is>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>Talita Ariani Lopes Fabiano</t>
-        </is>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y104" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z104" t="inlineStr"/>
-      <c r="AA104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
